--- a/xlsx/殖民地_intext.xlsx
+++ b/xlsx/殖民地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>殖民地</t>
   </si>
@@ -29,7 +29,7 @@
     <t>共主</t>
   </si>
   <si>
-    <t>政策_政策_美國_殖民地</t>
+    <t>政策_政策_美国_殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>附屬地</t>
+    <t>附属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E7%9C%81</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%8C%96</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙帝國</t>
+    <t>葡萄牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%9F%B3</t>
   </si>
   <si>
-    <t>寶石</t>
+    <t>宝石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%96%99</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%96%AF%E7%A7%91%C2%B7%E9%81%94%C2%B7%E4%BC%BD%E9%A6%AC</t>
   </si>
   <si>
-    <t>瓦斯科·達·伽馬</t>
+    <t>瓦斯科·达·伽马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%9C%9B%E8%A7%92</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E5%93%A5%E4%BC%A6%E5%B8%83</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗亞歷山大二世</t>
+    <t>教宗亚历山大二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%88%BE%E5%BE%B7%E8%A5%BF%E9%87%8C%E4%BA%9E%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>托爾德西里亞斯條約</t>
+    <t>托尔德西里亚斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%89%E8%A7%92%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>大三角貿易</t>
+    <t>大三角贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%95%B5%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>無敵艦隊</t>
+    <t>无敌舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E5%AD%99%E6%B9%BE%E5%85%AC%E5%8F%B8</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國東印度公司</t>
+    <t>英国东印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E4%B8%9C%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3_(%E6%AE%96%E6%B0%91%E5%9C%B0%E5%AE%98%E8%81%B7)</t>
   </si>
   <si>
-    <t>總督 (殖民地官職)</t>
+    <t>总督 (殖民地官职)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E7%B4%A7%E7%BC%A9</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾及爾</t>
+    <t>阿尔及尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%96%AF%E9%9B%B7%E5%88%A9</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普法戰爭</t>
+    <t>普法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%C2%B7%E6%8B%89%E7%AD%96%E5%B0%94</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E8%87%AA%E7%94%B1%E9%82%A6</t>
   </si>
   <si>
-    <t>奧蘭治自由邦</t>
+    <t>奥兰治自由邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -977,19 +977,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%8E%89%E8%8C%B2</t>
   </si>
   <si>
-    <t>大玉茲</t>
+    <t>大玉兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%8E%89%E8%8C%B2</t>
   </si>
   <si>
-    <t>中玉茲</t>
+    <t>中玉兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%8E%89%E8%8C%B2</t>
   </si>
   <si>
-    <t>小玉茲</t>
+    <t>小玉兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%93%A6%E6%B1%97%E5%9B%BD</t>
@@ -1085,9 +1085,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%B0%8F%E6%9C%9D%E9%B2%9C</t>
   </si>
   <si>
@@ -1121,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次摩洛哥危機</t>
+    <t>第一次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第二次摩洛哥危機</t>
+    <t>第二次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BB%8D%E8%BE%BE%E5%8D%B1%E6%9C%BA</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9B%BD</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%BC%98%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E5%85%AB%E4%BA%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>九一八事變</t>
+    <t>九一八事变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%9C%E5%8C%97</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E5%BF%83%E5%9B%BD</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>英屬緬甸</t>
+    <t>英属缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%B5%A6%E5%B7%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>桑給巴爾</t>
+    <t>桑给巴尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -1403,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E7%B5%B1%E6%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>特別統治主義</t>
+    <t>特别统治主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0%E5%BB%B6%E9%95%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>內地延長主義</t>
+    <t>内地延长主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
@@ -1433,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A5%BF%E8%BF%9B%E8%BF%90%E5%8A%A8</t>
@@ -1577,25 +1574,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>朝鮮日治時期</t>
+    <t>朝鲜日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%B0_(%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B)</t>
   </si>
   <si>
-    <t>外地 (大日本帝國)</t>
+    <t>外地 (大日本帝国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87</t>
   </si>
   <si>
-    <t>鴉片</t>
+    <t>鸦片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -1607,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -1625,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -1661,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>香港島</t>
+    <t>香港岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1685,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%BE%8D</t>
   </si>
   <si>
-    <t>九龍</t>
+    <t>九龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%95%E6%8B%93%E9%A6%99%E6%B8%AF%E7%95%8C%E5%9D%80%E5%B0%88%E6%A2%9D</t>
   </si>
   <si>
-    <t>展拓香港界址專條</t>
+    <t>展拓香港界址专条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%8C</t>
@@ -1721,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%91%A1%E5%92%8C%E5%A5%BD%E9%80%9A%E5%95%86%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>中葡和好通商條約</t>
+    <t>中葡和好通商条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971%E5%B9%B4</t>
@@ -1739,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4</t>
@@ -1757,19 +1754,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%B9%B3%E7%AD%89%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>不平等條約</t>
+    <t>不平等条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8B%B1%E8%81%AF%E5%90%88%E8%81%B2%E6%98%8E</t>
   </si>
   <si>
-    <t>中英聯合聲明</t>
+    <t>中英联合声明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1997%E5%B9%B4</t>
@@ -1787,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9C%8B%E5%85%A9%E5%88%B6</t>
   </si>
   <si>
-    <t>一國兩制</t>
+    <t>一国两制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E5%86%9B</t>
@@ -1805,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%83%E6%B8%AF</t>
@@ -1823,37 +1817,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%90%86%E6%B5%A9</t>
   </si>
   <si>
-    <t>麥理浩</t>
+    <t>麦理浩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0%E6%99%82%E6%9C%9F%E9%A6%99%E6%B8%AF%E6%94%BF%E6%B2%BB%E5%88%B6%E5%BA%A6%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>殖民地時期香港政治制度改革</t>
+    <t>殖民地时期香港政治制度改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>自治領</t>
+    <t>自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%85%95%E7%90%A6%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>楊慕琦計劃</t>
+    <t>杨慕琦计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E4%BE%86</t>
   </si>
   <si>
-    <t>周恩來</t>
+    <t>周恩来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E9%87%8F%E6%B4%AA</t>
@@ -1865,43 +1856,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E6%B1%9D%E5%BE%B7</t>
   </si>
   <si>
-    <t>顧汝德</t>
+    <t>顾汝德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>尼日利亞</t>
+    <t>尼日利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%A6%AC%E5%8F%AF</t>
   </si>
   <si>
-    <t>高馬可</t>
+    <t>高马可</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BA%8C%C2%B7%E4%B8%89%E4%BA%8B%E4%BB%B6</t>
@@ -1925,13 +1916,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>葡屬澳門</t>
+    <t>葡属澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1955,13 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1991,15 +1982,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2015,13 +2003,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
@@ -2057,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%9C%A3%E9%A9%AC%E4%B8%81</t>
@@ -2075,7 +2063,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2087,9 +2075,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
   </si>
   <si>
@@ -2105,15 +2090,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2135,37 +2117,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加那利群島</t>
+    <t>加那利群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94</t>
   </si>
   <si>
-    <t>休達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>梅利利亞</t>
+    <t>梅利利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速群島</t>
+    <t>亚速群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2183,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -2201,25 +2180,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E5%B3%B6%E5%92%8C%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>赫德島和麥克唐納群島</t>
+    <t>赫德岛和麦克唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -2231,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -2249,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>政治實體</t>
+    <t>政治实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2261,7 +2237,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -2273,15 +2249,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>美國領土</t>
+    <t>美国领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
   </si>
   <si>
@@ -2315,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_independence_movements</t>
@@ -2333,13 +2306,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AE%B8%E5%85%AC%E5%8F%B8</t>
@@ -2393,13 +2366,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
   </si>
   <si>
-    <t>亞洲殖民</t>
+    <t>亚洲殖民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -2441,13 +2414,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>比利時殖民地</t>
+    <t>比利时殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -2465,7 +2438,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E7%BD%91</t>
@@ -2483,7 +2456,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E4%B9%8B%E9%8B%92</t>
   </si>
   <si>
-    <t>黃之鋒</t>
+    <t>黄之锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E4%BC%A0%E5%AA%92</t>
@@ -2495,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%95%86%E5%A0%B1</t>
   </si>
   <si>
-    <t>香港商報</t>
+    <t>香港商报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -2507,19 +2480,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>英國外交部</t>
+    <t>英国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%93%E6%BF%9F%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>香港經濟日報</t>
+    <t>香港经济日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B0%A1%E5%8F%B2%E2%94%80%E5%BE%9E%E6%AE%96%E6%B0%91%E5%9C%B0%E8%87%B3%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>香港簡史─從殖民地至特別行政區</t>
+    <t>香港简史─从殖民地至特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8A%A1%E5%8D%B0%E4%B9%A6%E9%A6%86</t>
@@ -2537,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2549,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8082,7 +8055,7 @@
         <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="G179" t="n">
         <v>12</v>
@@ -8108,10 +8081,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8137,10 +8110,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8166,10 +8139,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8195,10 +8168,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8224,10 +8197,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>16</v>
@@ -8253,10 +8226,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8282,10 +8255,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8311,10 +8284,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8340,10 +8313,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8369,10 +8342,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8398,10 +8371,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8427,10 +8400,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8456,10 +8429,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8485,10 +8458,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8514,10 +8487,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8543,10 +8516,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8572,10 +8545,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8601,10 +8574,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8630,10 +8603,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8659,10 +8632,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8688,10 +8661,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8717,10 +8690,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8746,10 +8719,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>7</v>
@@ -8775,10 +8748,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8804,10 +8777,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8833,10 +8806,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8862,10 +8835,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8891,10 +8864,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8920,10 +8893,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8949,10 +8922,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8978,10 +8951,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9007,10 +8980,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9036,10 +9009,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9065,10 +9038,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9094,10 +9067,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9123,10 +9096,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9152,10 +9125,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9181,10 +9154,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9210,10 +9183,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9239,10 +9212,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9268,10 +9241,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9297,10 +9270,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9326,10 +9299,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9355,10 +9328,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9384,10 +9357,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9413,10 +9386,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9442,10 +9415,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9471,10 +9444,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9500,10 +9473,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9529,10 +9502,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9558,10 +9531,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9587,10 +9560,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9616,10 +9589,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9645,10 +9618,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9674,10 +9647,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9703,10 +9676,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>9</v>
@@ -9732,10 +9705,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>7</v>
@@ -9761,10 +9734,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>11</v>
@@ -9790,10 +9763,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9819,10 +9792,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9848,10 +9821,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9877,10 +9850,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9906,10 +9879,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9935,10 +9908,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9964,10 +9937,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9993,10 +9966,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
         <v>487</v>
-      </c>
-      <c r="F245" t="s">
-        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10022,10 +9995,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" t="s">
         <v>489</v>
-      </c>
-      <c r="F246" t="s">
-        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10051,10 +10024,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>490</v>
+      </c>
+      <c r="F247" t="s">
         <v>491</v>
-      </c>
-      <c r="F247" t="s">
-        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10080,10 +10053,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>492</v>
+      </c>
+      <c r="F248" t="s">
         <v>493</v>
-      </c>
-      <c r="F248" t="s">
-        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10109,10 +10082,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>494</v>
+      </c>
+      <c r="F249" t="s">
         <v>495</v>
-      </c>
-      <c r="F249" t="s">
-        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10138,10 +10111,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>496</v>
+      </c>
+      <c r="F250" t="s">
         <v>497</v>
-      </c>
-      <c r="F250" t="s">
-        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10167,10 +10140,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
         <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10196,10 +10169,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" t="s">
         <v>501</v>
-      </c>
-      <c r="F252" t="s">
-        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10225,10 +10198,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>502</v>
+      </c>
+      <c r="F253" t="s">
         <v>503</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10254,10 +10227,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>504</v>
+      </c>
+      <c r="F254" t="s">
         <v>505</v>
-      </c>
-      <c r="F254" t="s">
-        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10283,10 +10256,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
         <v>507</v>
-      </c>
-      <c r="F255" t="s">
-        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10312,10 +10285,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10341,10 +10314,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10370,10 +10343,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10399,10 +10372,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10428,10 +10401,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10457,10 +10430,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>11</v>
@@ -10486,10 +10459,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10515,10 +10488,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10544,10 +10517,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10573,10 +10546,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10602,10 +10575,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>528</v>
+      </c>
+      <c r="F266" t="s">
         <v>529</v>
-      </c>
-      <c r="F266" t="s">
-        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10631,10 +10604,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10660,10 +10633,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10689,10 +10662,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10718,10 +10691,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>536</v>
+      </c>
+      <c r="F270" t="s">
         <v>537</v>
-      </c>
-      <c r="F270" t="s">
-        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10747,10 +10720,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" t="s">
         <v>539</v>
-      </c>
-      <c r="F271" t="s">
-        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10776,10 +10749,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>540</v>
+      </c>
+      <c r="F272" t="s">
         <v>541</v>
-      </c>
-      <c r="F272" t="s">
-        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10805,10 +10778,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>542</v>
+      </c>
+      <c r="F273" t="s">
         <v>543</v>
-      </c>
-      <c r="F273" t="s">
-        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10834,10 +10807,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" t="s">
         <v>545</v>
-      </c>
-      <c r="F274" t="s">
-        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10863,10 +10836,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>546</v>
+      </c>
+      <c r="F275" t="s">
         <v>547</v>
-      </c>
-      <c r="F275" t="s">
-        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10892,10 +10865,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>548</v>
+      </c>
+      <c r="F276" t="s">
         <v>549</v>
-      </c>
-      <c r="F276" t="s">
-        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>49</v>
@@ -10921,10 +10894,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>550</v>
+      </c>
+      <c r="F277" t="s">
         <v>551</v>
-      </c>
-      <c r="F277" t="s">
-        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10950,10 +10923,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F278" t="s">
         <v>553</v>
-      </c>
-      <c r="F278" t="s">
-        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10979,10 +10952,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
         <v>555</v>
-      </c>
-      <c r="F279" t="s">
-        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11008,10 +10981,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
         <v>557</v>
-      </c>
-      <c r="F280" t="s">
-        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11037,10 +11010,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>558</v>
+      </c>
+      <c r="F281" t="s">
         <v>559</v>
-      </c>
-      <c r="F281" t="s">
-        <v>560</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11066,10 +11039,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>560</v>
+      </c>
+      <c r="F282" t="s">
         <v>561</v>
-      </c>
-      <c r="F282" t="s">
-        <v>562</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11095,10 +11068,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>562</v>
+      </c>
+      <c r="F283" t="s">
         <v>563</v>
-      </c>
-      <c r="F283" t="s">
-        <v>564</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11124,10 +11097,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>564</v>
+      </c>
+      <c r="F284" t="s">
         <v>565</v>
-      </c>
-      <c r="F284" t="s">
-        <v>566</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11153,10 +11126,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>566</v>
+      </c>
+      <c r="F285" t="s">
         <v>567</v>
-      </c>
-      <c r="F285" t="s">
-        <v>568</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11182,10 +11155,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" t="s">
         <v>569</v>
-      </c>
-      <c r="F286" t="s">
-        <v>570</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11211,10 +11184,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>570</v>
+      </c>
+      <c r="F287" t="s">
         <v>571</v>
-      </c>
-      <c r="F287" t="s">
-        <v>572</v>
       </c>
       <c r="G287" t="n">
         <v>5</v>
@@ -11240,10 +11213,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>572</v>
+      </c>
+      <c r="F288" t="s">
         <v>573</v>
-      </c>
-      <c r="F288" t="s">
-        <v>574</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11269,10 +11242,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>574</v>
+      </c>
+      <c r="F289" t="s">
         <v>575</v>
-      </c>
-      <c r="F289" t="s">
-        <v>576</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11298,10 +11271,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>576</v>
+      </c>
+      <c r="F290" t="s">
         <v>577</v>
-      </c>
-      <c r="F290" t="s">
-        <v>578</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11327,10 +11300,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>284</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -11356,10 +11329,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11385,10 +11358,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>26</v>
@@ -11414,10 +11387,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11443,10 +11416,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11472,10 +11445,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11501,10 +11474,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11530,10 +11503,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11559,10 +11532,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11588,10 +11561,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11617,10 +11590,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11646,10 +11619,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>246</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11675,10 +11648,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11704,10 +11677,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11762,10 +11735,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -11791,10 +11764,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11820,10 +11793,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11849,10 +11822,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -11878,10 +11851,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G310" t="n">
         <v>11</v>
@@ -11907,10 +11880,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11936,10 +11909,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F312" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11965,10 +11938,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11994,10 +11967,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12023,10 +11996,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12052,10 +12025,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12081,10 +12054,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G317" t="n">
         <v>22</v>
@@ -12110,10 +12083,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12139,10 +12112,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12168,10 +12141,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12197,10 +12170,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12226,10 +12199,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12255,10 +12228,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12284,10 +12257,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -12313,10 +12286,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12342,10 +12315,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12371,10 +12344,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12400,10 +12373,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12429,10 +12402,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G329" t="n">
         <v>3</v>
@@ -12458,10 +12431,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12487,10 +12460,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12516,10 +12489,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12545,10 +12518,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>501</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12574,10 +12547,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12603,10 +12576,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12632,10 +12605,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12661,10 +12634,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12690,10 +12663,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12719,10 +12692,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12748,10 +12721,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12777,10 +12750,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12806,10 +12779,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12835,10 +12808,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12864,10 +12837,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12893,10 +12866,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F345" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12922,10 +12895,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F346" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12951,10 +12924,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>528</v>
+      </c>
+      <c r="F347" t="s">
         <v>529</v>
-      </c>
-      <c r="F347" t="s">
-        <v>530</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -12980,10 +12953,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13009,10 +12982,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>194</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13038,10 +13011,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13067,10 +13040,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13096,10 +13069,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13125,10 +13098,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>198</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13154,10 +13127,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13183,10 +13156,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G355" t="n">
         <v>4</v>
@@ -13212,10 +13185,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13241,10 +13214,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13270,10 +13243,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>112</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13299,10 +13272,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13328,10 +13301,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13357,10 +13330,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>470</v>
+      </c>
+      <c r="F361" t="s">
         <v>471</v>
-      </c>
-      <c r="F361" t="s">
-        <v>472</v>
       </c>
       <c r="G361" t="n">
         <v>6</v>
@@ -13386,10 +13359,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13415,10 +13388,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13444,10 +13417,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13473,10 +13446,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13502,10 +13475,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -13531,10 +13504,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13560,10 +13533,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13589,10 +13562,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13618,10 +13591,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13647,10 +13620,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>252</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13676,10 +13649,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13705,10 +13678,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13734,10 +13707,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -13763,10 +13736,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>48</v>
@@ -13792,10 +13765,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13821,10 +13794,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13850,10 +13823,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13879,10 +13852,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13908,10 +13881,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F380" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G380" t="n">
         <v>12</v>
@@ -13937,10 +13910,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13966,10 +13939,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G382" t="n">
         <v>4</v>
@@ -13995,10 +13968,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>94</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14024,10 +13997,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G384" t="n">
         <v>6</v>
@@ -14053,10 +14026,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F385" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14082,10 +14055,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14111,10 +14084,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14169,10 +14142,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F389" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14198,10 +14171,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F390" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14227,10 +14200,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F391" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -14256,10 +14229,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F392" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14285,10 +14258,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F393" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14314,10 +14287,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F394" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14343,10 +14316,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F395" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14372,10 +14345,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F396" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14401,10 +14374,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F397" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14430,10 +14403,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F398" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G398" t="n">
         <v>5</v>
@@ -14459,10 +14432,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F399" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14488,10 +14461,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F400" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14517,10 +14490,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F401" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G401" t="n">
         <v>299</v>
@@ -14546,10 +14519,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F402" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14604,10 +14577,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F404" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14633,10 +14606,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F405" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14662,10 +14635,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F406" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14691,10 +14664,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F407" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14720,10 +14693,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F408" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14749,10 +14722,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F409" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14778,10 +14751,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F410" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G410" t="n">
         <v>9</v>
@@ -14836,10 +14809,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -14865,10 +14838,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>462</v>
+      </c>
+      <c r="F413" t="s">
         <v>463</v>
-      </c>
-      <c r="F413" t="s">
-        <v>464</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14894,10 +14867,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F414" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14923,10 +14896,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F415" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G415" t="n">
         <v>4</v>
@@ -14952,10 +14925,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F416" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G416" t="n">
         <v>18</v>
@@ -14981,10 +14954,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F417" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15010,10 +14983,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F418" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15039,10 +15012,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F419" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15068,10 +15041,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F420" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15097,10 +15070,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F421" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15126,10 +15099,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F422" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15155,10 +15128,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F423" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15184,10 +15157,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F424" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15213,10 +15186,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F425" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15242,10 +15215,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F426" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -15271,10 +15244,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F427" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15300,10 +15273,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F428" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15329,10 +15302,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F429" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -15358,10 +15331,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F430" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15387,10 +15360,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F431" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G431" t="n">
         <v>3</v>
@@ -15416,10 +15389,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F432" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15445,10 +15418,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F433" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>

--- a/xlsx/殖民地_intext.xlsx
+++ b/xlsx/殖民地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="847">
   <si>
     <t>殖民地</t>
   </si>
@@ -29,7 +29,7 @@
     <t>共主</t>
   </si>
   <si>
-    <t>政策_政策_美國_殖民地</t>
+    <t>体育运动_体育运动_古埃及_殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -2460,6 +2460,12 @@
   </si>
   <si>
     <t>en-History of Malta under the Order of Saint John</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
@@ -2898,7 +2904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10782,7 +10788,7 @@
         <v>542</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -15219,7 +15225,7 @@
         <v>828</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15248,7 +15254,7 @@
         <v>830</v>
       </c>
       <c r="G426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15277,7 +15283,7 @@
         <v>832</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15335,7 +15341,7 @@
         <v>836</v>
       </c>
       <c r="G429" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -15364,7 +15370,7 @@
         <v>838</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15393,7 +15399,7 @@
         <v>840</v>
       </c>
       <c r="G431" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -15422,7 +15428,7 @@
         <v>842</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -15457,6 +15463,35 @@
         <v>4</v>
       </c>
       <c r="I433" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1</v>
+      </c>
+      <c r="D434" t="n">
+        <v>433</v>
+      </c>
+      <c r="E434" t="s">
+        <v>845</v>
+      </c>
+      <c r="F434" t="s">
+        <v>846</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1</v>
+      </c>
+      <c r="H434" t="s">
+        <v>4</v>
+      </c>
+      <c r="I434" t="n">
         <v>3</v>
       </c>
     </row>
